--- a/вікна/вартість_внесків_вікна.xlsx
+++ b/вікна/вартість_внесків_вікна.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
   <si>
     <t>підїзд</t>
   </si>
@@ -1031,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1273,9 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6153,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -7565,10 +7562,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7742,74 +7739,141 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="18">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C11">
-        <v>97</v>
+      <c r="C11" s="18">
+        <f>підїзд1!H48</f>
+        <v>60800</v>
+      </c>
+      <c r="D11" s="18">
+        <f>підїзд1!I48</f>
+        <v>59200</v>
+      </c>
+      <c r="E11" s="18">
+        <f>100*D11/C11</f>
+        <v>97.368421052631575</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="A12" s="18">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C12">
-        <v>63</v>
+      <c r="C12" s="18">
+        <f>підїзд2!H38</f>
+        <v>48000</v>
+      </c>
+      <c r="D12" s="18">
+        <f>підїзд2!I38</f>
+        <v>46400</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" ref="E12:E15" si="1">100*D12/C12</f>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C13">
-        <v>56</v>
+      <c r="C13" s="18">
+        <f>підїзд3!G48</f>
+        <v>62400</v>
+      </c>
+      <c r="D13" s="18">
+        <f>підїзд3!H48</f>
+        <v>48000</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="1"/>
+        <v>76.92307692307692</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C14">
-        <v>61</v>
+      <c r="C14" s="18">
+        <f>підїзд4!G29</f>
+        <v>33600</v>
+      </c>
+      <c r="D14" s="18">
+        <f>підїзд4!H29</f>
+        <v>24000</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="A15" s="18">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C15">
-        <v>71</v>
-      </c>
+      <c r="C15" s="18">
+        <f>підїзд5!G56</f>
+        <v>75200</v>
+      </c>
+      <c r="D15" s="18">
+        <f>підїзд5!H56</f>
+        <v>60383</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="1"/>
+        <v>80.296542553191486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
+        <f>SUM(C11:C15)</f>
+        <v>280000</v>
+      </c>
+      <c r="D16" s="18">
+        <f>SUM(D11:D15)</f>
+        <v>237983</v>
+      </c>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
